--- a/testcaseGBackEnd/questions.xlsx
+++ b/testcaseGBackEnd/questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testcaseG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\ang\testcaseG\testcaseG\testcaseGBackEnd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB1A64B-CF9E-48E4-A34F-72ACA1E8939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFFD49E-C692-455C-AB97-338E6EB401CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demo1" sheetId="1" r:id="rId1"/>
@@ -615,16 +615,16 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="3" width="19.1328125" customWidth="1"/>
+    <col min="4" max="4" width="11.73046875" customWidth="1"/>
+    <col min="8" max="8" width="16.46484375" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -693,7 +693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -713,7 +713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -735,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -752,7 +752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -780,7 +780,7 @@
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -793,7 +793,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -806,7 +806,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -821,7 +821,7 @@
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -832,24 +832,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D5928C-6E05-4F3F-96A2-651B90B0E00A}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
-    <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="12.86328125" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" customWidth="1"/>
+    <col min="5" max="5" width="17.1328125" customWidth="1"/>
     <col min="6" max="6" width="62" customWidth="1"/>
-    <col min="7" max="7" width="21.375" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="21.3984375" customWidth="1"/>
+    <col min="8" max="8" width="18.73046875" customWidth="1"/>
+    <col min="9" max="9" width="16.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -878,7 +878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -907,7 +907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -918,13 +918,13 @@
         <v>39</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -944,7 +944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -958,13 +958,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -984,7 +984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1054,17 +1054,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADE1C36-B69A-4FA5-8B75-CC96588F58BD}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="6" max="6" width="44.25" customWidth="1"/>
+    <col min="6" max="6" width="44.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1139,52 +1139,52 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1203,13 +1203,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1284,52 +1284,52 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1346,7 +1346,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1359,7 +1359,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,7 +1374,7 @@
       <selection activeCell="O31" sqref="O31:O32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1387,7 +1387,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1400,7 +1400,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
